--- a/data/trans_dic/P25_8-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_8-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida</t>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,12%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,77%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 25,73</t>
+          <t>15,67; 29,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,36; 21,94</t>
+          <t>14,41; 28,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 29,73</t>
+          <t>12,33; 25,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,77; 31,15</t>
+          <t>15,06; 31,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 24,93</t>
+          <t>23,03; 35,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,28; 43,12</t>
+          <t>16,23; 27,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,82; 26,71</t>
+          <t>18,33; 31,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,81; 22,21</t>
+          <t>23,86; 38,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 32,12</t>
+          <t>21,09; 30,9</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 25,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16,73; 26,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21,55; 32,62</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,49; 26,46</t>
+          <t>14,66; 31,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 24,69</t>
+          <t>7,52; 19,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 23,15</t>
+          <t>9,89; 24,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 26,95</t>
+          <t>11,14; 26,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 21,39</t>
+          <t>13,33; 25,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 32,33</t>
+          <t>10,48; 22,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,28; 24,47</t>
+          <t>13,3; 25,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,76</t>
+          <t>12,89; 25,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,51; 25,41</t>
+          <t>15,62; 25,91</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,34; 18,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 23,55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,27; 23,1</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>47,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>32,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,38%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>35,4%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 27,97</t>
+          <t>7,89; 48,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 22,19</t>
+          <t>5,69; 40,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 36,34</t>
+          <t>9,89; 52,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,4; 42,87</t>
+          <t>3,92; 34,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 33,02</t>
+          <t>23,22; 54,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,78; 46,42</t>
+          <t>13,64; 44,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 31,2</t>
+          <t>26,33; 58,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 23,27</t>
+          <t>30,4; 64,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 36,99</t>
+          <t>18,6; 46,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,39; 35,4</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,94; 49,42</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>16,81; 42,26</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,21%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 22,99</t>
+          <t>17,35; 28,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 20,51</t>
+          <t>12,68; 21,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 25,08</t>
+          <t>13,77; 23,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 27,84</t>
+          <t>14,82; 24,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 21,89</t>
+          <t>21,83; 30,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 33,88</t>
+          <t>16,13; 23,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 24,5</t>
+          <t>19,44; 28,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 20,03</t>
+          <t>23,27; 33,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,54; 28,33</t>
+          <t>20,92; 27,96</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 21,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 24,48</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>20,73; 28,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc.), asma alérgica excluida (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>96248</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>73848</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69053</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>120308</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>147715</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>89298</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100907</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>176331</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>243963</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>163146</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>169960</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>296639</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>67393; 128332</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52780; 103046</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46949; 98402</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>77674; 160240</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>116693; 181116</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>68037; 115204</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>74692; 126628</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>134505; 219237</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>197549; 289474</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>130518; 197310</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>131850; 207145</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>232665; 352198</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77448</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40249</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>52133</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>71999</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>80072</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>53193</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61286</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>73940</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>157520</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93443</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>113419</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>145940</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>52333; 113067</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23931; 62014</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31921; 79692</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>45928; 107408</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>56266; 109311</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35472; 76214</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44549; 85889</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>52152; 104909</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>121674; 201890</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>67912; 120119</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>88676; 154847</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>108372; 188724</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26097</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13805</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24054</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17208</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37816</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22268</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33911</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52618</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>63913</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36073</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>57965</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69826</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7803; 48241</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4532; 32006</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8034; 42287</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4677; 41259</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22941; 54331</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11122; 35998</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21734; 48459</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>33850; 71690</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36764; 91589</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19973; 57047</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35925; 80937</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38794; 97523</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>199793</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>127902</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>145240</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>209516</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>265602</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>164760</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>196104</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>302889</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>465395</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>292661</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>341344</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>512405</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>153698; 249033</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>96869; 163192</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>108074; 185422</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>155282; 261521</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>224338; 312440</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>135410; 199568</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>160401; 231692</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>251200; 365007</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>400424; 535151</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>246641; 344056</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>290924; 393995</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>440897; 597769</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
